--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_186__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_186__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,70 +6118,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>10.38595962524414</c:v>
+                  <c:v>10.38597106933594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.29259490966797</c:v>
+                  <c:v>92.2926025390625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>86.71939849853516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.445793628692627</c:v>
+                  <c:v>-2.445787668228149</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>92.69631195068359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.47660827636719</c:v>
+                  <c:v>68.47661590576172</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>98.35755157470703</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.69613647460938</c:v>
+                  <c:v>27.69614219665527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.245156168937683</c:v>
+                  <c:v>-1.245167970657349</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.90271377563477</c:v>
+                  <c:v>45.9027099609375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.17816162109375</c:v>
+                  <c:v>77.17818450927734</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.85570526123047</c:v>
+                  <c:v>90.85569000244141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.0854549407959</c:v>
+                  <c:v>19.08547782897949</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.34833526611328</c:v>
+                  <c:v>93.34832763671875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.1599195748567581</c:v>
+                  <c:v>-0.1599313318729401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.37842178344727</c:v>
+                  <c:v>35.37839508056641</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.159784346818924</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91.16321563720703</c:v>
+                  <c:v>91.1632080078125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.94300842285156</c:v>
+                  <c:v>61.94301986694336</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.692848682403564</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>92.09910583496094</c:v>
+                  <c:v>92.09908294677734</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.81665802001953</c:v>
+                  <c:v>98.816650390625</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>93.34389495849609</c:v>
@@ -6193,10 +6193,10 @@
                   <c:v>0.9183734655380249</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.27629089355469</c:v>
+                  <c:v>87.27630615234375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>73.49478912353516</c:v>
+                  <c:v>73.49481201171875</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>82.33097076416016</c:v>
@@ -6205,136 +6205,136 @@
                   <c:v>0.6150553822517395</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.02889823913574</c:v>
+                  <c:v>24.02889251708984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.63454055786133</c:v>
+                  <c:v>53.63454437255859</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.764306902885437</c:v>
+                  <c:v>1.764330387115479</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.764950752258301</c:v>
+                  <c:v>-2.764938831329346</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.7557082176208496</c:v>
+                  <c:v>-0.7557023167610168</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.3018305599689484</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>96.62955474853516</c:v>
+                  <c:v>96.62952423095703</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>23.11301231384277</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.009536380879580975</c:v>
+                  <c:v>0.009530501440167427</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.86238694190979</c:v>
+                  <c:v>-1.862404584884644</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>96.00169372558594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.94890975952148</c:v>
+                  <c:v>41.94889068603516</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>91.49482727050781</c:v>
+                  <c:v>91.49481964111328</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.6712624430656433</c:v>
+                  <c:v>-0.6712506413459778</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65.85701751708984</c:v>
+                  <c:v>65.85702514648438</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.747691631317139</c:v>
+                  <c:v>1.747703433036804</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.5865697264671326</c:v>
+                  <c:v>-0.5865814685821533</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-0.9462300539016724</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.84859466552734</c:v>
+                  <c:v>95.84860992431641</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-37.35431289672852</c:v>
+                  <c:v>-37.35427856445312</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.52088165283203</c:v>
+                  <c:v>94.52089691162109</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41.7362060546875</c:v>
+                  <c:v>41.73619842529297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.56981086730957</c:v>
+                  <c:v>15.56982326507568</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>85.02869415283203</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.2592519819736481</c:v>
+                  <c:v>-0.2592578530311584</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>25.1008186340332</c:v>
+                  <c:v>25.10080718994141</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>64.38410186767578</c:v>
+                  <c:v>64.38409423828125</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>81.02227783203125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.1872058510780334</c:v>
+                  <c:v>-0.1871940940618515</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.629833698272705</c:v>
+                  <c:v>7.629851341247559</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>91.87818908691406</c:v>
+                  <c:v>91.878173828125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.1190754100680351</c:v>
+                  <c:v>-0.1190871670842171</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.4619265198707581</c:v>
+                  <c:v>-0.4619382917881012</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>99.29063415527344</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-9.800636291503906</c:v>
+                  <c:v>-9.800642013549805</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>92.56793212890625</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-5.273765563964844</c:v>
+                  <c:v>-5.273783206939697</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>-2.382078647613525</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>53.29209518432617</c:v>
+                  <c:v>53.29205703735352</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>88.80389404296875</c:v>
+                  <c:v>88.80390167236328</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>95.20695495605469</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>98.88128662109375</c:v>
+                  <c:v>98.88127136230469</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>90.82448577880859</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>91.74176025390625</c:v>
+                  <c:v>91.74178314208984</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>7.994555950164795</c:v>
@@ -6343,7 +6343,7 @@
                   <c:v>95.52375030517578</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>38.52384948730469</c:v>
+                  <c:v>38.52387237548828</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>93.34168243408203</c:v>
@@ -6352,25 +6352,25 @@
                   <c:v>92.39579010009766</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>91.80664825439453</c:v>
+                  <c:v>91.806640625</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>98.87903594970703</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.24548864364624</c:v>
+                  <c:v>6.245523929595947</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-0.9563014507293701</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.617651224136353</c:v>
+                  <c:v>-1.617639422416687</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>92.57740783691406</c:v>
+                  <c:v>92.57740020751953</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>90.90277099609375</c:v>
+                  <c:v>90.90275573730469</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>92.16043853759766</c:v>
@@ -6379,22 +6379,22 @@
                   <c:v>1.975759387016296</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.79940390586853</c:v>
+                  <c:v>-2.799380540847778</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.669334173202515</c:v>
+                  <c:v>2.669310569763184</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>97.09490203857422</c:v>
+                  <c:v>97.09489440917969</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>96.81775665283203</c:v>
+                  <c:v>96.8177490234375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.05904677510261536</c:v>
+                  <c:v>0.05903501808643341</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>57.70064163208008</c:v>
+                  <c:v>57.70064544677734</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>92.91232299804688</c:v>
@@ -6403,28 +6403,28 @@
                   <c:v>55.75874710083008</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>50.26462936401367</c:v>
+                  <c:v>50.26464462280273</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>91.76482391357422</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>95.56385803222656</c:v>
+                  <c:v>95.56385040283203</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.01350497268140316</c:v>
+                  <c:v>0.01349321473389864</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>85.41257476806641</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.6016797423362732</c:v>
+                  <c:v>0.6016915440559387</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>-2.824979305267334</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>84.39240264892578</c:v>
+                  <c:v>84.39241790771484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10.38595962524414</v>
+        <v>10.38597106933594</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>92.29259490966797</v>
+        <v>92.2926025390625</v>
       </c>
       <c r="G3">
         <v>116</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.445793628692627</v>
+        <v>-2.445787668228149</v>
       </c>
       <c r="G5">
         <v>116</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>68.47660827636719</v>
+        <v>68.47661590576172</v>
       </c>
       <c r="G7">
         <v>116</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.69613647460938</v>
+        <v>27.69614219665527</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>-1.245156168937683</v>
+        <v>-1.245167970657349</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>45.90271377563477</v>
+        <v>45.9027099609375</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>77.17816162109375</v>
+        <v>77.17818450927734</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>90.85570526123047</v>
+        <v>90.85569000244141</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.0854549407959</v>
+        <v>19.08547782897949</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>93.33920000000001</v>
       </c>
       <c r="F15">
-        <v>93.34833526611328</v>
+        <v>93.34832763671875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>-0.1599195748567581</v>
+        <v>-0.1599313318729401</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>35.37842178344727</v>
+        <v>35.37839508056641</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>91.16321563720703</v>
+        <v>91.1632080078125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>61.94300842285156</v>
+        <v>61.94301986694336</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>92.09910583496094</v>
+        <v>92.09908294677734</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>98.81665802001953</v>
+        <v>98.816650390625</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>87.27629089355469</v>
+        <v>87.27630615234375</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>73.49478912353516</v>
+        <v>73.49481201171875</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>24.02889823913574</v>
+        <v>24.02889251708984</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>53.63454055786133</v>
+        <v>53.63454437255859</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.764306902885437</v>
+        <v>1.764330387115479</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-2.764950752258301</v>
+        <v>-2.764938831329346</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.7557082176208496</v>
+        <v>-0.7557023167610168</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>98.208</v>
       </c>
       <c r="F37">
-        <v>96.62955474853516</v>
+        <v>96.62952423095703</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.009536380879580975</v>
+        <v>0.009530501440167427</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-1.86238694190979</v>
+        <v>-1.862404584884644</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>41.94890975952148</v>
+        <v>41.94889068603516</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>91.49482727050781</v>
+        <v>91.49481964111328</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.6712624430656433</v>
+        <v>-0.6712506413459778</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>65.85701751708984</v>
+        <v>65.85702514648438</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.747691631317139</v>
+        <v>1.747703433036804</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.5865697264671326</v>
+        <v>-0.5865814685821533</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>89.79689999999999</v>
       </c>
       <c r="F49">
-        <v>95.84859466552734</v>
+        <v>95.84860992431641</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-37.35431289672852</v>
+        <v>-37.35427856445312</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>94.52088165283203</v>
+        <v>94.52089691162109</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>41.7362060546875</v>
+        <v>41.73619842529297</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>15.56981086730957</v>
+        <v>15.56982326507568</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.2592519819736481</v>
+        <v>-0.2592578530311584</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>25.1008186340332</v>
+        <v>25.10080718994141</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>64.38410186767578</v>
+        <v>64.38409423828125</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.1872058510780334</v>
+        <v>-0.1871940940618515</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>7.629833698272705</v>
+        <v>7.629851341247559</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>91.87818908691406</v>
+        <v>91.878173828125</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.1190754100680351</v>
+        <v>-0.1190871670842171</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.4619265198707581</v>
+        <v>-0.4619382917881012</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>-9.800636291503906</v>
+        <v>-9.800642013549805</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-5.273765563964844</v>
+        <v>-5.273783206939697</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>53.29209518432617</v>
+        <v>53.29205703735352</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>88.80389404296875</v>
+        <v>88.80390167236328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>98.4423</v>
       </c>
       <c r="F72">
-        <v>98.88128662109375</v>
+        <v>98.88127136230469</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>91.74176025390625</v>
+        <v>91.74178314208984</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>38.52384948730469</v>
+        <v>38.52387237548828</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>91.80664825439453</v>
+        <v>91.806640625</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>6.24548864364624</v>
+        <v>6.245523929595947</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.617651224136353</v>
+        <v>-1.617639422416687</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>92.57740783691406</v>
+        <v>92.57740020751953</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>95.37090000000001</v>
       </c>
       <c r="F86">
-        <v>90.90277099609375</v>
+        <v>90.90275573730469</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-2.79940390586853</v>
+        <v>-2.799380540847778</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.669334173202515</v>
+        <v>2.669310569763184</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>97.09490203857422</v>
+        <v>97.09489440917969</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>96.81775665283203</v>
+        <v>96.8177490234375</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.05904677510261536</v>
+        <v>0.05903501808643341</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>57.70064163208008</v>
+        <v>57.70064544677734</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>50.26462936401367</v>
+        <v>50.26464462280273</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>96.6401</v>
       </c>
       <c r="F99">
-        <v>95.56385803222656</v>
+        <v>95.56385040283203</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.01350497268140316</v>
+        <v>0.01349321473389864</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0.6016797423362732</v>
+        <v>0.6016915440559387</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>84.39240264892578</v>
+        <v>84.39241790771484</v>
       </c>
     </row>
     <row r="105" spans="1:6">
